--- a/data/faculty_data.xlsx
+++ b/data/faculty_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,6 +841,48 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>dghts</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sdgrgc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>cdf</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>fd</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>fgvrg</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Psychology</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/faculty_data.xlsx
+++ b/data/faculty_data.xlsx
@@ -2,27 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="510" yWindow="555" windowWidth="14055" windowHeight="4050" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -43,14 +50,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +423,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" bestFit="1" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -464,19 +477,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>wewe</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>wewe</t>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>neil@gmail.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>wesddfsdf</t>
+          <t>brian</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -484,19 +495,15 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>dfdsf</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
-        </is>
+      <c r="E2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9326473821</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>wewe</t>
+          <t>manila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -506,384 +513,523 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>ekel@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>absalon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9765876543</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>manila</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Psychology</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>dones@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>lance</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9764531234</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>manila</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Applied Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>rogem@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pano</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9643727173</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>manila</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Applied Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>josel@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>de jesus</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9763543265</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>manila</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Applied Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>zzzzdfdf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>xcxc</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>xcxc</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>xcxc</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>xxc</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Applied Physics</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>zzzzdfdfsss</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>xcxc</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>xcxc</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>xcxc</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>xxc</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Psychology</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ggggg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>xcxc</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>xcxc</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>xcxc</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>xxc</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Psychology</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>xcdf</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>fdf</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>cvd</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>xfdfef</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Psychology</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sdgrgc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>cdf</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>fd</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>fgvrg</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Psychology</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>jjjjjj</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>jjjj</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>jjj</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>jjjjj</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>jjjj</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>838373</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>pano@gmail.com</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>jojojoj</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0987645372212</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>asasasdasda</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Psychology</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rogem@gmail.com</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>asdsasd</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>asdsad</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>sadasd</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>838373</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>sdsdsd</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>sdsd</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>sdsd</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sdsd</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>sdsdsd</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>dsds</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>sdsd</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Psychology</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>dffsd</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>fdfxxf</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>xxc</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>sdsdsd</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Applied Physics</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>dffsddfdfgh</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>fdfxxffge</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>xxc</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Applied Physics</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>kud</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>zzzz</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>xxc</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Applied Physics</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>kudfddf</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>zzzzdfdf</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>xxc</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Applied Physics</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>kudfddfsss</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>zzzzdfdfsss</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>xxc</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Psychology</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>rrrr</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ggggg</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>xxc</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Psychology</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>xcxc</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>xcdf</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>fdf</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>cvd</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>xfdfef</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Psychology</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>dghts</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>sdgrgc</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sdf</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>cdf</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>fd</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>fgvrg</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Psychology</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>